--- a/java-core/src/main/resources/nd_data2BResult.xlsx
+++ b/java-core/src/main/resources/nd_data2BResult.xlsx
@@ -12,21 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>1期A测试</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2期B测试</t>
   </si>
   <si>
     <t>阅读书籍数</t>
   </si>
   <si>
-    <t>重合率</t>
-  </si>
-  <si>
     <t>s号</t>
   </si>
   <si>
+    <t>阅读书籍数的重合率</t>
+  </si>
+  <si>
     <t>大于5本数</t>
+  </si>
+  <si>
+    <t>大于5分钟的书籍重合率</t>
   </si>
   <si>
     <t>S65664641</t>
@@ -661,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -674,7 +677,8 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -689,32 +693,41 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -722,27 +735,33 @@
       <c r="A5" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D6" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -750,13 +769,16 @@
       <c r="A7" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D7" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -764,125 +786,152 @@
       <c r="A8" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>8.0</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>8.0</v>
       </c>
+      <c r="E9" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>7.0</v>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>3.0</v>
       </c>
+      <c r="E15" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D16" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -890,41 +939,50 @@
       <c r="A17" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>8.0</v>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>4.0</v>
       </c>
+      <c r="E18" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D19" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -932,83 +990,101 @@
       <c r="A20" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>9.0</v>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>9.0</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>24</v>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>3.0</v>
       </c>
+      <c r="E24" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D25" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1016,83 +1092,101 @@
       <c r="A26" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>29</v>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>6.0</v>
       </c>
-      <c r="B28" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>5.0</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="B29" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>31</v>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>6.0</v>
       </c>
-      <c r="B30" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>32</v>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>5.0</v>
       </c>
+      <c r="E30" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B31" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>33</v>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D31" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1100,139 +1194,169 @@
       <c r="A32" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="B32" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>34</v>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>2.0</v>
       </c>
+      <c r="E32" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B33" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B34" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>36</v>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="B35" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>37</v>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>4.0</v>
       </c>
+      <c r="E35" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B36" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>38</v>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B37" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>39</v>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
         <v>71.0</v>
       </c>
-      <c r="B38" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>40</v>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>20.0</v>
       </c>
+      <c r="E38" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B39" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>41</v>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>16.0</v>
       </c>
-      <c r="B40" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
+      <c r="B40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>5.0</v>
       </c>
+      <c r="E40" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B41" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>43</v>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D41" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E41" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1240,41 +1364,50 @@
       <c r="A42" s="2" t="n">
         <v>5.0</v>
       </c>
-      <c r="B42" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>44</v>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>4.0</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
         <v>6.0</v>
       </c>
-      <c r="B43" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>45</v>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>4.0</v>
       </c>
+      <c r="E43" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B44" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>46</v>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D44" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E44" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1282,83 +1415,101 @@
       <c r="A45" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B45" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>47</v>
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="B46" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>48</v>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>3.0</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B47" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>49</v>
+      <c r="B47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>2.0</v>
       </c>
+      <c r="E47" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B48" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>50</v>
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>26.0</v>
       </c>
-      <c r="B49" s="4" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>51</v>
+      <c r="B49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>0.1154</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>13.0</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>0.1538</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B50" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>52</v>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D50" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E50" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1366,27 +1517,33 @@
       <c r="A51" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B51" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
+      <c r="B51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B52" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>54</v>
+      <c r="B52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D52" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E52" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1394,111 +1551,135 @@
       <c r="A53" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B53" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
+      <c r="B53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B54" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>56</v>
+      <c r="B54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B55" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>57</v>
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B56" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>58</v>
+      <c r="B56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
         <v>3.0</v>
       </c>
-      <c r="B57" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>59</v>
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>2.0</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B58" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>60</v>
+      <c r="B58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B59" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>61</v>
+      <c r="B59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
         <v>4.0</v>
       </c>
-      <c r="B60" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>62</v>
+      <c r="B60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D60" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1506,13 +1687,16 @@
       <c r="A61" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B61" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>63</v>
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D61" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1520,69 +1704,84 @@
       <c r="A62" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B62" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>64</v>
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B63" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>65</v>
+      <c r="B63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
         <v>18.0</v>
       </c>
-      <c r="B64" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>66</v>
+      <c r="B64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>5.0</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
         <v>7.0</v>
       </c>
-      <c r="B65" s="4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>67</v>
+      <c r="B65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>0.1429</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>4.0</v>
       </c>
+      <c r="E65" s="4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="B66" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>68</v>
+      <c r="B66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D66" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E66" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1590,47 +1789,56 @@
       <c r="A67" s="2" t="n">
         <v>22.0</v>
       </c>
-      <c r="B67" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>69</v>
+      <c r="B67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>10.0</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B68" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>70</v>
+      <c r="B68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>1.0</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B69" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>71</v>
+      <c r="B69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D69" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="2" t="n">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
